--- a/GLOBAL/Impactos y Proyecciones Cambio Climático/Vida Humana/4 Desastres Naturales Por Tipo Global 1900-2019.xlsx
+++ b/GLOBAL/Impactos y Proyecciones Cambio Climático/Vida Humana/4 Desastres Naturales Por Tipo Global 1900-2019.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos y Proyecciones Cambio Climático\Vida Humana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263302F0-6A19-492D-9764-FD6FDEBC522E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB66C079-A191-4C5F-BE4A-AA7C3C982794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="3" r:id="rId1"/>
+    <sheet name="Desastres Naturales por Tipo" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -971,7 +971,7 @@
   <dimension ref="A1:F837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
